--- a/словарь данных.xlsx
+++ b/словарь данных.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>KEY</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>VARCHAR (200)</t>
-  </si>
-  <si>
-    <t>INT</t>
   </si>
   <si>
     <t>Client</t>
@@ -710,8 +707,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -726,7 +723,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -742,7 +739,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -771,10 +768,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
@@ -784,7 +781,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -797,7 +794,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -810,7 +807,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="25"/>
       <c r="B8" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -823,10 +820,10 @@
     <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -835,43 +832,43 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="24"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -900,10 +897,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>6</v>
@@ -913,10 +910,10 @@
     <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>6</v>
@@ -926,10 +923,10 @@
     <row r="17" spans="1:5">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>6</v>
@@ -938,10 +935,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>8</v>
@@ -950,12 +947,12 @@
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21.75" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -984,10 +981,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>6</v>
@@ -997,7 +994,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
@@ -1010,7 +1007,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
@@ -1022,7 +1019,7 @@
     </row>
     <row r="26" spans="1:5" ht="21.75" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -1051,10 +1048,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>6</v>
@@ -1064,10 +1061,10 @@
     <row r="29" spans="1:5">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>6</v>
@@ -1077,7 +1074,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>10</v>
@@ -1090,10 +1087,10 @@
     <row r="31" spans="1:5">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>6</v>
@@ -1103,10 +1100,10 @@
     <row r="32" spans="1:5">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>6</v>
@@ -1116,31 +1113,31 @@
     <row r="33" spans="1:5">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="21.75" customHeight="1">
       <c r="A34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>32</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20.25" customHeight="1"/>
